--- a/data/case1/9/Q_device_1.xlsx
+++ b/data/case1/9/Q_device_1.xlsx
@@ -53,43 +53,51 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B5"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="14.42578125" customWidth="true"/>
-    <col min="2" max="2" width="14.42578125" customWidth="true"/>
+    <col min="1" max="1" width="15.42578125" customWidth="true"/>
+    <col min="2" max="2" width="15.42578125" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0">
-        <v>-0.027054241396137154</v>
+        <v>-0.045168227808977154</v>
       </c>
       <c r="B1" s="0">
-        <v>-0.027342893231680463</v>
+        <v>-0.061518927093152299</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0">
-        <v>-0.044807464266177731</v>
+        <v>-0.0041884015802298334</v>
       </c>
       <c r="B2" s="0">
-        <v>-0.044817171719091338</v>
+        <v>-0.0042166454971664918</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="0">
-        <v>-0.025931811905849922</v>
+        <v>-0.024085272601921563</v>
       </c>
       <c r="B3" s="0">
-        <v>-0.016622726384477697</v>
+        <v>-0.016707284668503995</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0">
-        <v>-0.058833884076550755</v>
+        <v>-0.0041258618718550836</v>
       </c>
       <c r="B4" s="0">
-        <v>-0.058831020147036131</v>
+        <v>-0.0041402251454878899</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="0">
+        <v>-0.059594559847822068</v>
+      </c>
+      <c r="B5" s="0">
+        <v>-0.059639658827718024</v>
       </c>
     </row>
   </sheetData>
